--- a/Réseau/Plan_IP_Projet-Scientifique.xlsx
+++ b/Réseau/Plan_IP_Projet-Scientifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan.wrona/Documents/S7/PRJSC_Equipe_9/Réseau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C002398-777A-E64A-ADF1-38E5203692C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093F5FB-D85A-1644-9FA8-AE6167E9479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16340" xr2:uid="{B5A98876-AAC4-4546-BAF6-9E0852D08E9E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{B5A98876-AAC4-4546-BAF6-9E0852D08E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan IP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>Routeur</t>
   </si>
@@ -300,6 +300,33 @@
   </si>
   <si>
     <t>Port-channel 1 (F3/0 - F2/1)</t>
+  </si>
+  <si>
+    <t>Helper adresse adresse lan</t>
+  </si>
+  <si>
+    <t>opsf R5 R6 pas redistribuer router default</t>
+  </si>
+  <si>
+    <t>route static ne doivent pas être partager dans le cœur de réseau</t>
+  </si>
+  <si>
+    <t>Préval 1 ;</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>lookback ospf</t>
+  </si>
+  <si>
+    <t>Serveur DNS</t>
+  </si>
+  <si>
+    <t>ospf enlever les réseau de periphérie dans la conf</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -800,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862296A3-D165-48AE-A269-6952DBB3407E}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,9 +840,10 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,7 +860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -849,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>75</v>
@@ -864,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>74</v>
@@ -879,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>73</v>
@@ -894,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -911,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>78</v>
@@ -926,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>76</v>
@@ -941,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -958,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>76</v>
@@ -973,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>79</v>
@@ -987,8 +1015,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1035,14 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>81</v>
@@ -1019,8 +1056,14 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>84</v>
@@ -1034,8 +1077,11 @@
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>83</v>
@@ -1049,8 +1095,14 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1118,14 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>76</v>
@@ -1081,8 +1139,14 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>82</v>
@@ -1097,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
         <v>81</v>
@@ -1112,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
         <v>78</v>
@@ -1144,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
         <v>82</v>
@@ -1159,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>81</v>
@@ -1174,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>87</v>
@@ -1189,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
         <v>78</v>
@@ -1221,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="4" t="s">
         <v>81</v>
@@ -1236,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="4" t="s">
         <v>82</v>
@@ -1251,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="4" t="s">
         <v>87</v>
@@ -1266,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="4" t="s">
         <v>81</v>
@@ -1301,7 +1365,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -1385,16 +1449,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,6 +1475,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D33818556F4C244A6EEB71F88B15EA5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f34fc0fe6772ecd9a6cf16cff8958aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f37f15-a843-4540-917e-878f63ea0b31" xmlns:ns4="67894206-57fb-4371-9e36-d217fa73d4fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9e29f148272546a06b9368b70506f09" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f37f15-a843-4540-917e-878f63ea0b31"/>
@@ -1595,12 +1665,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665FCD9F-F4B5-4119-B024-0F192C8989B7}">
   <ds:schemaRefs>
@@ -1610,6 +1674,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41197807-7551-4599-98DC-1468F83F4C9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="67894206-57fb-4371-9e36-d217fa73d4fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f1f37f15-a843-4540-917e-878f63ea0b31"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF4B55-4041-497E-8FA7-57BD8622FD03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1626,21 +1707,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41197807-7551-4599-98DC-1468F83F4C9D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="67894206-57fb-4371-9e36-d217fa73d4fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f1f37f15-a843-4540-917e-878f63ea0b31"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>